--- a/docs/ST3/ST3_12.08.24_output.xlsx
+++ b/docs/ST3/ST3_12.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731675179.6022582</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731675179.9590237</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731675179.6022582.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731675179.9590237.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>278.48</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278.3</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.1800000000000068</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731675181.7502744</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731675184.6856928</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731675181.7502744.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731675184.6856928.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>278</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.83</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.1700000000000159</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731675189.201534</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731675190.3296866</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731675189.201534.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731675190.3296866.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>279.2</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>279.3</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.1000000000000227</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -695,95 +729,107 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731675191.965984</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731675191.965984.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731675191.965984.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>279.66</v>
       </c>
-      <c r="J6" t="n">
-        <v>279.66</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>280.15</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.4899999999999523</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731675194.0782864</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731675194.4064064</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675194.0782864.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675194.4064064.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>278.48</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>278.3</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.1800000000000068</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731675195.971855</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731675198.4754717</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675195.971855.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675198.4754717.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>278</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>277.83</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.1700000000000159</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731675202.2876556</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731675203.1909227</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675202.2876556.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675203.1909227.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>279.2</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>279.3</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.1000000000000227</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731675204.6757417</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731675206.242261</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675204.6757417.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675206.242261.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>279.66</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>278.29</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-1.370000000000005</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.49</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731675206.700386</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731675207.3162668</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675206.700386.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675207.3162668.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>278.71</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>279.17</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.4600000000000364</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731675209.4201024</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731675210.5095587</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675209.4201024.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675210.5095587.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>278.92</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>278.2</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.7200000000000273</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731675210.803489</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731675212.6505022</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675210.803489.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675212.6505022.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>278.46</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>278.99</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.5300000000000296</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731675215.7311819</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731675216.8515081</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675215.7311819.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675216.8515081.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>279.7</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>280.32</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.6200000000000045</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731675217.4577034</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731675218.4557126</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675217.4577034.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675218.4557126.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>280.02</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>280.16</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.1400000000000432</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731675220.1993823</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731675222.0361087</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675220.1993823.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675222.0361087.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>280.57</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>281.34</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.7699999999999818</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731675225.731267</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731675226.3831334</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675225.731267.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675226.3831334.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>127.85</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>127.31</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.539999999999992</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731675226.8678539</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731675227.657167</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675226.8678539.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675227.657167.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>127.63</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>127.65</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.02000000000001023</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731675231.775442</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731675232.6297197</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675231.775442.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675232.6297197.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>128.05</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>127.93</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.1200000000000045</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731675233.6162708</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731675234.9228978</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675233.6162708.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675234.9228978.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>128.19</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>128.04</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.1500000000000057</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -1467,95 +1591,107 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731675237.723907</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731675237.723907.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731675237.723907.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>129.02</v>
       </c>
-      <c r="J21" t="n">
-        <v>129.02</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>128.91</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.1100000000000136</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731675239.1685934</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731675240.1262565</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675239.1685934.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675240.1262565.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6375</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6379.5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-4.5</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -1563,51 +1699,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731675243.1639516</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731675243.823338</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675243.1639516.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675243.823338.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6326.5</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6337.5</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-11</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -1615,51 +1757,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731675248.3542426</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731675250.5193205</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675248.3542426.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675250.5193205.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6367</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>6374</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>7</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1667,51 +1815,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731675252.7789319</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731675254.0391145</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675252.7789319.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675254.0391145.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>6415</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>6437</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>22</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -1719,51 +1873,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731675254.2790673</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731675254.8663273</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731675254.2790673.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731675254.8663273.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>501.9</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>501.9</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1771,51 +1931,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731675258.5597746</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731675260.6784968</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731675258.5597746.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731675260.6784968.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>496.05</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>495.9</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.1500000000000341</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1823,51 +1989,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731675264.887622</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731675266.0985937</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731675264.887622.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731675266.0985937.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>499.55</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>498</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-1.550000000000011</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -1875,51 +2047,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731675267.9941294</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731675269.7114432</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731675267.9941294.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731675269.7114432.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>499.55</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>502.25</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>2.699999999999989</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -1927,51 +2105,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731675270.06441</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731675272.8892846</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731675270.06441.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731675272.8892846.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>224.69</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>224.65</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.03999999999999204</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1979,51 +2163,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731675274.5363393</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731675274.9301171</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731675274.5363393.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731675274.9301171.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>224.56</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>224.32</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.2400000000000091</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2031,51 +2221,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731675280.4050097</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731675282.5247452</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731675280.4050097.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731675282.5247452.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>226.1</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>226.48</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2083,51 +2279,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731675285.369628</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731675287.250139</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731675285.369628.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731675287.250139.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1009.4</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1012.6</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-3.200000000000045</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -2135,51 +2337,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731675298.377048</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731675298.7743623</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731675298.377048.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731675298.7743623.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1023.4</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1031.6</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>8.199999999999932</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -2187,51 +2395,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731675308.373924</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731675309.6119838</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/CNY1731675308.373924.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/CNY1731675309.6119838.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>11.959</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>11.967</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.008000000000000895</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -2239,51 +2453,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731675310.2144578</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731675311.041979</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731675310.2144578.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731675311.041979.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>11.962</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>11.953</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.009000000000000341</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -2291,51 +2511,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731675315.791817</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731675317.0963843</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675315.791817.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675317.0963843.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>123.38</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>124.08</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.7000000000000028</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -2343,51 +2569,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731675317.297101</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731675317.9446602</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675317.297101.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675317.9446602.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>123.74</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>123.58</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.1599999999999966</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -2395,51 +2627,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731675319.2026043</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731675322.213439</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675319.2026043.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675322.213439.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>123.22</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>123.88</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.6599999999999966</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.54</v>
       </c>
     </row>
@@ -2447,51 +2685,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731675328.358187</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731675329.069077</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675328.358187.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675329.069077.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>124.34</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>124.86</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.519999999999996</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -2499,51 +2743,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731675330.7069433</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731675331.2382622</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731675330.7069433.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731675331.2382622.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>158.5</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>158.76</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.2599999999999909</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -2551,51 +2801,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731675339.0905166</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731675340.0185907</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731675339.0905166.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731675340.0185907.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>160.8</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>161.58</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.7800000000000011</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -2603,51 +2859,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731675342.4456553</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731675343.8441226</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731675342.4456553.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731675343.8441226.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>161.9</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>162.3</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.4000000000000057</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2655,95 +2917,107 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731675344.4065824</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731675344.4065824.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731675344.4065824.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>162.08</v>
       </c>
-      <c r="J44" t="n">
-        <v>162.08</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>162.3</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.2199999999999989</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731675345.3548753</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731675346.8878913</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731675345.3548753.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731675346.8878913.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>49.06</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>49.065</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.004999999999995453</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -2751,51 +3025,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731675356.6583555</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731675357.084968</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731675356.6583555.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731675357.084968.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>49.9</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>50.125</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.2250000000000014</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -2803,95 +3083,107 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731675357.5719578</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731675357.5719578.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731675357.5719578.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>49.99</v>
       </c>
-      <c r="J47" t="n">
-        <v>49.99</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>50.225</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.2349999999999994</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731675369.4411914</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731675370.579333</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731675369.4411914.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731675370.579333.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1377.8</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1384</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>6.200000000000045</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -2899,101 +3191,113 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731675369.4981709</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731675377.7169352</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675369.4981709.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675377.7169352.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731675371.2080672</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731675371.7956495</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731675371.2080672.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731675371.7956495.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1381.4</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1384.4</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>3</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -3001,51 +3305,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731675372.1623263</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731675372.8795252</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731675372.1623263.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731675372.8795252.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>1385.2</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>1389</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>3.799999999999955</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -3053,95 +3363,107 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731675373.2335782</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731675373.2335782.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731675373.2335782.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>1386.8</v>
       </c>
-      <c r="J52" t="n">
-        <v>1386.8</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1387.6</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.7999999999999545</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731675385.2269187</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731675385.9141457</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731675385.2269187.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731675385.9141457.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>61.05</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>61.29</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.240000000000002</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -3149,51 +3471,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731675386.29173</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731675387.2153952</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731675386.29173.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731675387.2153952.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>61.21</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>60.96</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.25</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.41</v>
       </c>
     </row>
@@ -3201,51 +3529,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731675393.5937674</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731675393.9267225</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731675393.5937674.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731675393.9267225.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>96.81</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>97.25</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -3253,51 +3587,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731675394.222245</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731675395.028393</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731675394.222245.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731675395.028393.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>97.09999999999999</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>97.09</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.009999999999990905</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -3305,51 +3645,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731675396.0728734</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731675397.148043</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731675396.0728734.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731675397.148043.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>96.81</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>96.91</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -3357,51 +3703,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731675398.2735965</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731675399.9779758</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731675398.2735965.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731675399.9779758.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>97.09999999999999</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>97.3</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -3409,51 +3761,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731675401.508286</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731675402.3799534</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731675401.508286.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731675402.3799534.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>97.61</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>97.72</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.1099999999999994</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -3461,95 +3819,107 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731675403.1333578</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731675403.1333578.png</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731675403.1333578.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>97.92</v>
       </c>
-      <c r="J60" t="n">
-        <v>97.92</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>98.26000000000001</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.3400000000000034</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731675408.478505</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731675409.1962519</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SELG1731675408.478505.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SELG1731675409.1962519.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>55.35</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>55.41</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.05999999999999517</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -3557,51 +3927,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731675416.1244802</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731675418.6314783</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/SELG1731675416.1244802.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/SELG1731675418.6314783.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>55.46</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>55.72</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.259999999999998</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -3609,95 +3985,107 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731675419.3581538</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731675419.3581538.png</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731675419.3581538.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>55.78</v>
       </c>
-      <c r="J63" t="n">
-        <v>55.78</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>55.97</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731675421.1993861</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731675423.5111895</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731675421.1993861.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731675423.5111895.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>150.42</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>149.88</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.539999999999992</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -3705,51 +4093,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731675424.120554</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731675424.5155716</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731675424.120554.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731675424.5155716.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>149.88</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>149.52</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.3599999999999852</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -3757,51 +4151,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731675425.3501868</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731675426.35592</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731675425.3501868.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731675426.35592.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>149.66</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>150.22</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.5600000000000023</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -3809,51 +4209,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731675431.0908768</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731675432.012597</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731675431.0908768.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731675432.012597.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>150.94</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>151.44</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.5</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -3861,51 +4267,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731675439.0224576</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731675440.947071</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731675439.0224576.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731675440.947071.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>0.2945</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>0.2945</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3913,95 +4325,107 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731675443.0920615</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731675443.0920615.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731675443.0920615.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>0.296</v>
       </c>
-      <c r="J69" t="n">
-        <v>0.296</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>0.2988</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.002800000000000025</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731675445.904107</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731675446.8808482</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731675445.904107.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731675446.8808482.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>19.919</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>19.872</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.0470000000000006</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -4009,101 +4433,113 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731675446.3109796</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731675454.7556422</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675446.3109796.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675454.7556422.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731675448.488628</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731675449.6625137</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731675448.488628.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731675449.6625137.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>19.85</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>19.805</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.04500000000000171</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -4111,51 +4547,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731675449.934847</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731675450.8644395</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731675449.934847.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731675450.8644395.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>19.812</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>19.852</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.03999999999999915</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -4163,51 +4605,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731675455.6651843</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731675456.270004</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731675455.6651843.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731675456.270004.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>19.947</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>19.94</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.006999999999997897</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -4215,51 +4663,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731675456.9502492</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731675458.2095747</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731675456.9502492.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731675458.2095747.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>19.981</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>19.962</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-0.0190000000000019</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -4267,95 +4721,107 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731675461.0360308</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731675461.0360308.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731675461.0360308.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>20.108</v>
       </c>
-      <c r="J76" t="n">
-        <v>20.108</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>20.035</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-0.0730000000000004</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731675470.9627857</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731675472.7080092</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731675470.9627857.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731675472.7080092.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>670.75</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>670.7</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.04999999999995453</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -4363,51 +4829,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731675474.5261292</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731675475.7784033</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731675474.5261292.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731675475.7784033.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>672.65</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>674.95</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>2.300000000000068</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -4415,51 +4887,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731675476.577179</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731675478.1009567</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731675476.577179.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731675478.1009567.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>149.18</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>149.84</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-0.6599999999999966</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>-0.44</v>
       </c>
     </row>
@@ -4467,93 +4945,105 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731675478.8300037</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731675478.8300037.png</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731675478.8300037.png</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="J80" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
       </c>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731675479.638354</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731675480.6284769</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731675479.638354.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731675480.6284769.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>149.35</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>148.89</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.460000000000008</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -4561,51 +5051,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731675487.697005</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731675488.260889</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731675487.697005.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731675488.260889.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>152.77</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>152.43</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>-0.3400000000000034</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -4689,19 +5185,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02600000000000335</v>
+        <v>-0.04699999999999704</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004333333333333893</v>
+        <v>-0.00783333333333284</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1299999999999999</v>
+        <v>-0.23</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="4">
@@ -4711,19 +5207,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6400000000000148</v>
+        <v>0.9800000000000182</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1066666666666691</v>
+        <v>0.1633333333333364</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6599999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="F4" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5">
@@ -4733,19 +5229,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2499999999999716</v>
+        <v>0.1399999999999579</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04999999999999431</v>
+        <v>0.02799999999999159</v>
       </c>
       <c r="E5" t="n">
-        <v>0.19</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -4755,19 +5251,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9200000000000159</v>
+        <v>1.140000000000015</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.230000000000004</v>
+        <v>0.2850000000000037</v>
       </c>
       <c r="E6" t="n">
-        <v>0.58</v>
+        <v>0.72</v>
       </c>
       <c r="F6" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="7">
@@ -4777,19 +5273,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>13.79999999999995</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>3.25</v>
+        <v>3.449999999999989</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8">
@@ -4865,19 +5361,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4500000000000455</v>
+        <v>0.9399999999999977</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1125000000000114</v>
+        <v>0.2349999999999994</v>
       </c>
       <c r="E11" t="n">
-        <v>0.16</v>
+        <v>0.34</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="12">
@@ -4909,19 +5405,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2000000000000028</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06666666666666761</v>
+        <v>0.1300000000000002</v>
       </c>
       <c r="E13" t="n">
-        <v>0.36</v>
+        <v>0.7</v>
       </c>
       <c r="F13" t="n">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="14">
@@ -4997,19 +5493,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.220000000000006</v>
+        <v>0.4550000000000054</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07333333333333532</v>
+        <v>0.1516666666666685</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18">
@@ -5063,19 +5559,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.002800000000000025</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.001400000000000012</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="21">
